--- a/inputData/data.xlsx
+++ b/inputData/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAN\EWorkspace\TestPageFac\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A538E9-DC13-44B2-BBE0-1B7CFB8E8B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB88202-0FE4-4ABD-85CE-B1B9939E5ACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="abc" sheetId="1" r:id="rId1"/>
+    <sheet name="validLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="invalidLogin" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>mngr371386</t>
   </si>
   <si>
     <t>YhyrYvu</t>
+  </si>
+  <si>
+    <t>mngr377622</t>
+  </si>
+  <si>
+    <t>Avanapu</t>
   </si>
 </sst>
 </file>
@@ -357,13 +364,36 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" customWidth="1"/>
   </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B651AEF-032D-4F03-B013-E85CF16E3A1C}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -374,7 +404,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inputData/data.xlsx
+++ b/inputData/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAN\EWorkspace\TestPageFac\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB88202-0FE4-4ABD-85CE-B1B9939E5ACC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18378F33-7311-432F-B468-0EB7C14EE9D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLogin" sheetId="1" r:id="rId1"/>
     <sheet name="invalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="addnewcustomer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>mngr371386</t>
   </si>
@@ -34,17 +35,47 @@
     <t>YhyrYvu</t>
   </si>
   <si>
-    <t>mngr377622</t>
-  </si>
-  <si>
-    <t>Avanapu</t>
+    <t>mngr379588</t>
+  </si>
+  <si>
+    <t>qyzEren</t>
+  </si>
+  <si>
+    <t>shikarpur</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>202395</t>
+  </si>
+  <si>
+    <t>9599</t>
+  </si>
+  <si>
+    <t>789585</t>
+  </si>
+  <si>
+    <t>281992</t>
+  </si>
+  <si>
+    <t>manoj1@gmail.com</t>
+  </si>
+  <si>
+    <t>manoj2@gmail.com</t>
+  </si>
+  <si>
+    <t>manojl</t>
+  </si>
+  <si>
+    <t>manojm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +85,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,8 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -363,7 +405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -373,10 +415,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -406,4 +448,81 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0C0646-84DE-453A-8446-F045390EF0DD}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H1" r:id="rId1" display="manoj@gmail.com" xr:uid="{DE13859A-734A-4ABC-A74A-B2BD622D7C48}"/>
+    <hyperlink ref="H2" r:id="rId2" display="manoj@gmail.com" xr:uid="{087BB18F-AD57-4DD4-8B2A-F536F80D49DE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/inputData/data.xlsx
+++ b/inputData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAN\EWorkspace\TestPageFac\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18378F33-7311-432F-B468-0EB7C14EE9D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8838CC8B-B2EE-4F5B-9546-24F404A02CF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLogin" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,6 @@
     <t>YhyrYvu</t>
   </si>
   <si>
-    <t>mngr379588</t>
-  </si>
-  <si>
-    <t>qyzEren</t>
-  </si>
-  <si>
     <t>shikarpur</t>
   </si>
   <si>
@@ -69,13 +63,19 @@
   </si>
   <si>
     <t>manojm</t>
+  </si>
+  <si>
+    <t>mngr391197</t>
+  </si>
+  <si>
+    <t>AsuqeqE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,13 +85,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,11 +110,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -405,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,11 +405,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -454,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0C0646-84DE-453A-8446-F045390EF0DD}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -462,60 +452,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/inputData/data.xlsx
+++ b/inputData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAN\EWorkspace\TestPageFac\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8838CC8B-B2EE-4F5B-9546-24F404A02CF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A40E0E4-E759-4293-9A13-4E1E9F19C89E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="15600" windowHeight="7236" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLogin" sheetId="1" r:id="rId1"/>
@@ -53,22 +53,22 @@
     <t>281992</t>
   </si>
   <si>
-    <t>manoj1@gmail.com</t>
-  </si>
-  <si>
-    <t>manoj2@gmail.com</t>
-  </si>
-  <si>
-    <t>manojl</t>
-  </si>
-  <si>
-    <t>manojm</t>
-  </si>
-  <si>
     <t>mngr391197</t>
   </si>
   <si>
     <t>AsuqeqE</t>
+  </si>
+  <si>
+    <t>manoj24@gmail.com</t>
+  </si>
+  <si>
+    <t>manoj25@gmail.com</t>
+  </si>
+  <si>
+    <t>manojkumari</t>
+  </si>
+  <si>
+    <t>manojkumarj</t>
   </si>
 </sst>
 </file>
@@ -395,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,10 +406,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -444,15 +444,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0C0646-84DE-453A-8446-F045390EF0DD}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -473,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -481,7 +482,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -502,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -511,7 +512,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1" display="manoj@gmail.com" xr:uid="{DE13859A-734A-4ABC-A74A-B2BD622D7C48}"/>
-    <hyperlink ref="H2" r:id="rId2" display="manoj@gmail.com" xr:uid="{087BB18F-AD57-4DD4-8B2A-F536F80D49DE}"/>
+    <hyperlink ref="H2" r:id="rId2" display="manoj@gmail.com" xr:uid="{5B69A65E-BE9D-4487-A9A7-5CDC3F57CE35}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inputData/data.xlsx
+++ b/inputData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAN\EWorkspace\TestPageFac\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A40E0E4-E759-4293-9A13-4E1E9F19C89E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E349F26-A498-451D-B205-1FD65469A960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="15600" windowHeight="7236" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="15600" windowHeight="7236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLogin" sheetId="1" r:id="rId1"/>
@@ -53,29 +53,29 @@
     <t>281992</t>
   </si>
   <si>
-    <t>mngr391197</t>
-  </si>
-  <si>
-    <t>AsuqeqE</t>
-  </si>
-  <si>
-    <t>manoj24@gmail.com</t>
-  </si>
-  <si>
-    <t>manoj25@gmail.com</t>
-  </si>
-  <si>
-    <t>manojkumari</t>
-  </si>
-  <si>
-    <t>manojkumarj</t>
+    <t>ehezYrY</t>
+  </si>
+  <si>
+    <t>mngr406150</t>
+  </si>
+  <si>
+    <t>manojkumark</t>
+  </si>
+  <si>
+    <t>manojkumarl</t>
+  </si>
+  <si>
+    <t>manoj26@gmail.com</t>
+  </si>
+  <si>
+    <t>manoj27@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,6 +85,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,9 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,9 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -405,11 +411,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -444,16 +450,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0C0646-84DE-453A-8446-F045390EF0DD}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -474,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -482,7 +489,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -503,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>

--- a/inputData/data.xlsx
+++ b/inputData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAN\EWorkspace\TestPageFac\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E349F26-A498-451D-B205-1FD65469A960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E1772F-0900-49A8-91C9-1D7A68723E47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="15600" windowHeight="7236" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLogin" sheetId="1" r:id="rId1"/>
@@ -53,22 +53,22 @@
     <t>281992</t>
   </si>
   <si>
-    <t>ehezYrY</t>
-  </si>
-  <si>
-    <t>mngr406150</t>
-  </si>
-  <si>
-    <t>manojkumark</t>
-  </si>
-  <si>
-    <t>manojkumarl</t>
-  </si>
-  <si>
-    <t>manoj26@gmail.com</t>
-  </si>
-  <si>
-    <t>manoj27@gmail.com</t>
+    <t>mngr437157</t>
+  </si>
+  <si>
+    <t>ajAruqu</t>
+  </si>
+  <si>
+    <t>manojkumarz</t>
+  </si>
+  <si>
+    <t>manojkumary</t>
+  </si>
+  <si>
+    <t>manoj31@gmail.com</t>
+  </si>
+  <si>
+    <t>manoj30@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -412,10 +412,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -450,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0C0646-84DE-453A-8446-F045390EF0DD}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>

--- a/inputData/data.xlsx
+++ b/inputData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAN\EWorkspace\TestPageFac\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E1772F-0900-49A8-91C9-1D7A68723E47}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4C285E-E491-4F84-9E9A-86FEAF007273}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="validLogin" sheetId="1" r:id="rId1"/>
@@ -59,16 +59,16 @@
     <t>ajAruqu</t>
   </si>
   <si>
-    <t>manojkumarz</t>
-  </si>
-  <si>
-    <t>manojkumary</t>
-  </si>
-  <si>
-    <t>manoj31@gmail.com</t>
-  </si>
-  <si>
-    <t>manoj30@gmail.com</t>
+    <t>manojkumarx</t>
+  </si>
+  <si>
+    <t>manojkumarw</t>
+  </si>
+  <si>
+    <t>manoj32@gmail.com</t>
+  </si>
+  <si>
+    <t>manoj33@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -450,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0C0646-84DE-453A-8446-F045390EF0DD}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>

--- a/inputData/data.xlsx
+++ b/inputData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAN\EWorkspace\TestPageFac\inputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4C285E-E491-4F84-9E9A-86FEAF007273}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223FCB03-DB19-4689-9EE6-36444ADE54EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,16 +59,16 @@
     <t>ajAruqu</t>
   </si>
   <si>
-    <t>manojkumarx</t>
-  </si>
-  <si>
-    <t>manojkumarw</t>
-  </si>
-  <si>
-    <t>manoj32@gmail.com</t>
-  </si>
-  <si>
-    <t>manoj33@gmail.com</t>
+    <t>manojkumaru</t>
+  </si>
+  <si>
+    <t>manojkumarv</t>
+  </si>
+  <si>
+    <t>manoj34@gmail.com</t>
+  </si>
+  <si>
+    <t>manoj35@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D0C0646-84DE-453A-8446-F045390EF0DD}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
